--- a/public/Example_dataset.xlsx
+++ b/public/Example_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\ПО 18\Ястребова\Конкурс ЛЦТ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\price-calculator\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27347D35-3E6B-4F63-86BC-D926AD1B0554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76FDFA-A68F-4AC4-80D5-42551EE80B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные по объекту" sheetId="2" r:id="rId1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>Местоположение</t>
   </si>
@@ -1024,9 +1024,6 @@
   </si>
   <si>
     <t>Нет</t>
-  </si>
-  <si>
-    <t>Студия</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1166,7 +1163,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -47215,10 +47211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47231,7 +47227,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -47266,7 +47262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -47301,7 +47297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -47335,9 +47331,8 @@
       <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -47371,9 +47366,8 @@
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -47407,9 +47401,8 @@
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -47444,7 +47437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -47479,7 +47472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -47514,7 +47507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -47549,7 +47542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -47584,41 +47577,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>29</v>
-      </c>
-      <c r="H11" s="5">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="3">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
